--- a/similarities/split_global/harmonic_similarity_timestamps_28.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,406 +484,444 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_98</t>
+          <t>schubert-winterreise_131</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:43.880000', '0:00:48.020000')]</t>
+          <t>('0:01:01.320000', '0:01:03.700000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:25.580000', '0:01:34.240000')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-131#t=61.32</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>isophonics_174</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_55</t>
+          <t>isophonics_291</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C', 'A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>['D', 'G', 'A', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C', 'A:7', 'D:7', 'G:7', 'C']]</t>
+          <t>['D', 'G', 'A', 'D', 'G', 'D', 'G', 'D', 'G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:03.480000', '0:00:10.460000')]</t>
+          <t>('0:00:43.934000', '0:00:53.870000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:43.390000', '0:00:52.390000')]</t>
+          <t>('0:00:32.421428', '0:00:48.176167')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-15#t=3.48']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=43.39']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=32.421428</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>schubert-winterreise_194</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_10</t>
+          <t>schubert-winterreise_85</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb:7', 'Ab:maj6']]</t>
+          <t>['C:min', 'G:maj/B', 'C:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb:maj6']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:31.660000', '0:00:38.640000')]</t>
+          <t>('0:00:13.520000', '0:00:19.080000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:37.850000', '0:00:45.930000')]</t>
+          <t>('0:00:01.260000', '0:00:05.440000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-56#t=31.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-194#t=13.52</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-10#t=37.85']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=1.26</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_78</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_148</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C#:maj', 'G#:7', 'C#:maj', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:00.760000', '0:01:04.360000')]</t>
+          <t>('0:00:00.480000', '0:00:09.640000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:16.040000', '0:00:22.400000')]</t>
+          <t>('0:00:08.080000', '0:00:26.260000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=60.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=0.48</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=16.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-148#t=8.08</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:min', 'C:min/G', 'G:7', 'C:min'], ['D#/G', 'C:min/G', 'G:7', 'C:min']]</t>
+          <t>['G:min', 'G#:maj/C', 'G:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:min', 'G:min/D', 'D:7', 'G:min'], ['A#:maj', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['F:min', 'F#/A#', 'F:min/C']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:23.080000', '0:00:30.020000'), ('0:01:04.680000', '0:01:10.020000')]</t>
+          <t>('0:00:43.640000', '0:00:46.580000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:45.940000', '0:00:59.040000'), ('0:00:38.940000', '0:00:49')]</t>
+          <t>('0:02:56.400000', '0:02:58.860000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=23.08', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=64.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=43.64</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=45.94', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=38.94']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=176.4</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:00.279000', '0:00:16.531000')]</t>
+          <t>('0:00:43.180000', '0:00:45.100000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-6#t=0.279']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=43.18</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_195</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:21.280000', '0:01:29.420000')]</t>
+          <t>('0:01:32.180000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:44.160000', '0:00:48.160000')]</t>
+          <t>('0:01:32.260000', '0:01:39.020000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-200#t=81.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=92.18</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=92.26</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_33</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['C:min', 'F:min', 'C:min/G']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:03.600000', '0:01:06.040000')]</t>
+          <t>('0:00:27.360000', '0:00:34.920000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:54.037586')]</t>
+          <t>('0:00:09.600000', '0:00:13.300000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-33#t=63.6']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=27.36</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=9.6</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_85</t>
+          <t>schubert-winterreise_121</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab', 'Eb:7', 'Ab']]</t>
+          <t>['C:min/G', 'G:7', 'C:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:01:22.070000', '0:01:30.900000')]</t>
+          <t>('0:00:26.960000', '0:00:33.500000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:01.760000', '0:01:09.340000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-85#t=82.07']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=26.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -892,286 +930,300 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>schubert-winterreise_198</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_29</t>
+          <t>schubert-winterreise_78</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['E:min', 'B:maj', 'E:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:7/C', 'A#:min/C#']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:19.980000', '0:00:28.900000')]</t>
+          <t>('0:01:21.420000', '0:01:30.040000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:00.800000', '0:00:02.880000')]</t>
+          <t>('0:00:07.400000', '0:00:12.020000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=81.42</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-29#t=0.8']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-78#t=7.4</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_144</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:7/E', 'F:maj', 'C:7/E', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:22.660000')]</t>
+          <t>('0:00:35', '0:00:39.820000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:08.700000', '0:00:26.220000')]</t>
+          <t>('0:01:30.080000', '0:01:42')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=35.0</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-196#t=8.7']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=90.08</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>schubert-winterreise_208</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>schubert-winterreise_15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
+          <t>['C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:00.727609', '0:00:08.204625')]</t>
+          <t>('0:01:54.680000', '0:02:12.880000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+          <t>('0:00:31.340000', '0:00:41.920000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-167#t=0.727609']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-208#t=114.68</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=52.74']</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-15#t=31.34</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E', 'B']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj', 'B:maj']]</t>
+          <t>['F:7/D#', 'A#:maj/D', 'F:maj/C']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:02.612267', '0:00:20.410362')]</t>
+          <t>('0:01:06.040000', '0:01:08.540000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:55.180000', '0:01:05.560000')]</t>
+          <t>('0:01:01.680000', '0:01:07.260000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=66.04</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=55.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=61.68</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>jaah_14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>jaah_1</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Eb:7', 'Bb']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Eb:7', 'Bb']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:26.670000', '0:00:36.510000')]</t>
+          <t>('0:00:10.090000', '0:00:20.170000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:13.900000', '0:00:25.840000')]</t>
+          <t>('0:00:00.720000', '0:00:17.050000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=26.67']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-14#t=10.09</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=13.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-1#t=0.72</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>isophonics_200</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:29.500000')]</t>
+          <t>('0:01:57.540000', '0:02:01.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:01:17.720000', '0:01:35.680000')]</t>
+          <t>('0:00:02.408196', '0:00:13.878853')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-151#t=117.54</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=77.72']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-200#t=2.408196</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
